--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E39C54-AF40-4815-BB37-B989C51B2C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBBA773-0D38-469C-8B8B-91DD8EB38C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Requirement</t>
   </si>
   <si>
-    <t>a.1</t>
-  </si>
-  <si>
     <t>User Requirement</t>
   </si>
   <si>
@@ -63,10 +60,16 @@
     <t>When I have added the thing</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Interview</t>
+  </si>
+  <si>
+    <t>Github link to issues</t>
+  </si>
+  <si>
+    <t>Subrequirement</t>
+  </si>
+  <si>
+    <t>i.1</t>
   </si>
 </sst>
 </file>
@@ -122,16 +125,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:H3" totalsRowShown="0">
-  <autoFilter ref="B2:H3" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I3" totalsRowShown="0">
+  <autoFilter ref="B2:I3" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{61333736-D8AE-4E92-8083-E0CA1447312A}" name="Requirement"/>
-    <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Subrequirement"/>
     <tableColumn id="3" xr3:uid="{31DCF9F4-D0AB-48D6-B273-6A61762E92FB}" name="User Requirement"/>
     <tableColumn id="4" xr3:uid="{F88B3A48-8665-40A1-B555-E18A8C57A7A1}" name="Solves"/>
     <tableColumn id="5" xr3:uid="{458E62CE-F2DB-43E8-A0B1-3AE1827047B4}" name="Evidence"/>
     <tableColumn id="6" xr3:uid="{32E7F817-A24D-47CA-9E2F-56B731209DAA}" name="Justification"/>
     <tableColumn id="7" xr3:uid="{EA67DD74-0EA9-4894-93DB-334F56C81888}" name="Success Criteria"/>
+    <tableColumn id="8" xr3:uid="{853CCA24-6CE7-472E-AF5E-76CD171E3972}" name="Github link to issues"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -400,66 +404,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBBA773-0D38-469C-8B8B-91DD8EB38C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B9AC4-EF4C-4644-8B27-594D268AE74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
   <si>
     <t>Requirement</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Evidence</t>
   </si>
   <si>
-    <t>Justification</t>
-  </si>
-  <si>
     <t>Success Criteria</t>
   </si>
   <si>
-    <t>Example Solution</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -69,17 +63,230 @@
     <t>Subrequirement</t>
   </si>
   <si>
-    <t>i.1</t>
+    <t>Justification/Limitation</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>I.XX</t>
+  </si>
+  <si>
+    <t>WB.XX</t>
+  </si>
+  <si>
+    <t>PS.XX</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Proposed Solution</t>
+  </si>
+  <si>
+    <t>Digital Pantry</t>
+  </si>
+  <si>
+    <t>Item Storage</t>
+  </si>
+  <si>
+    <t>Variant Optionality</t>
+  </si>
+  <si>
+    <t>Storage Specifications</t>
+  </si>
+  <si>
+    <t>Pantry Appendability</t>
+  </si>
+  <si>
+    <t>Pantry GUI</t>
+  </si>
+  <si>
+    <t>Pantry Ingredient Availability</t>
+  </si>
+  <si>
+    <t>Spiciness Tracker</t>
+  </si>
+  <si>
+    <t>Allergy Tracker</t>
+  </si>
+  <si>
+    <t>Food Group Tracker</t>
+  </si>
+  <si>
+    <t>Texture Tracker</t>
+  </si>
+  <si>
+    <t>Amounts Tracker</t>
+  </si>
+  <si>
+    <t>Expiration Detailer</t>
+  </si>
+  <si>
+    <t>Taste Tracker</t>
+  </si>
+  <si>
+    <t>Digital Methodology List</t>
+  </si>
+  <si>
+    <t>Recipe Leftoverability</t>
+  </si>
+  <si>
+    <t>Recipe Methodological Requirements</t>
+  </si>
+  <si>
+    <t>Cuisine Tracker</t>
+  </si>
+  <si>
+    <t>Method List "Quality" Tracker</t>
+  </si>
+  <si>
+    <t>Methodology List GUI</t>
+  </si>
+  <si>
+    <t>Methodology List Appendability</t>
+  </si>
+  <si>
+    <t>PS.1</t>
+  </si>
+  <si>
+    <t>PS.2</t>
+  </si>
+  <si>
+    <t>PS.3</t>
+  </si>
+  <si>
+    <t>Weekly Planner</t>
+  </si>
+  <si>
+    <t>Settings Store Availability</t>
+  </si>
+  <si>
+    <t>Settings Allergies</t>
+  </si>
+  <si>
+    <t>Settings Four Strength Preferences</t>
+  </si>
+  <si>
+    <t>Algorythim</t>
+  </si>
+  <si>
+    <t>Scheduling Meal Time Slots</t>
+  </si>
+  <si>
+    <t>7 Day Current Memory</t>
+  </si>
+  <si>
+    <t>28 Day Previous Memory</t>
+  </si>
+  <si>
+    <t>Meal Factorisation</t>
+  </si>
+  <si>
+    <t>Pantry Look Up Shopping List</t>
+  </si>
+  <si>
+    <t>Pantry Look Up Expiry Dates</t>
+  </si>
+  <si>
+    <t>PS.1.1</t>
+  </si>
+  <si>
+    <t>PS.1.2</t>
+  </si>
+  <si>
+    <t>PS.1.3</t>
+  </si>
+  <si>
+    <t>PS.1.4</t>
+  </si>
+  <si>
+    <t>PS.1.5</t>
+  </si>
+  <si>
+    <t>PS.1.6</t>
+  </si>
+  <si>
+    <t>PS.1.7</t>
+  </si>
+  <si>
+    <t>PS.1.8</t>
+  </si>
+  <si>
+    <t>PS.1.9</t>
+  </si>
+  <si>
+    <t>PS.1.10</t>
+  </si>
+  <si>
+    <t>PS.1.11</t>
+  </si>
+  <si>
+    <t>PS.1.12</t>
+  </si>
+  <si>
+    <t>PS.1.13</t>
+  </si>
+  <si>
+    <t>PS.2.1</t>
+  </si>
+  <si>
+    <t>PS.2.2</t>
+  </si>
+  <si>
+    <t>PS.2.3</t>
+  </si>
+  <si>
+    <t>PS.2.4</t>
+  </si>
+  <si>
+    <t>PS.2.5</t>
+  </si>
+  <si>
+    <t>PS.2.6</t>
+  </si>
+  <si>
+    <t>PS.3.1</t>
+  </si>
+  <si>
+    <t>PS.3.2</t>
+  </si>
+  <si>
+    <t>PS.3.3</t>
+  </si>
+  <si>
+    <t>PS.3.4</t>
+  </si>
+  <si>
+    <t>PS.3.5</t>
+  </si>
+  <si>
+    <t>PS.3.6</t>
+  </si>
+  <si>
+    <t>PS.3.7</t>
+  </si>
+  <si>
+    <t>PS.3.8</t>
+  </si>
+  <si>
+    <t>PS.3.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,15 +332,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I3" totalsRowShown="0">
-  <autoFilter ref="B2:I3" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I40" totalsRowShown="0">
+  <autoFilter ref="B2:I40" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{61333736-D8AE-4E92-8083-E0CA1447312A}" name="Requirement"/>
     <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Subrequirement"/>
     <tableColumn id="3" xr3:uid="{31DCF9F4-D0AB-48D6-B273-6A61762E92FB}" name="User Requirement"/>
     <tableColumn id="4" xr3:uid="{F88B3A48-8665-40A1-B555-E18A8C57A7A1}" name="Solves"/>
     <tableColumn id="5" xr3:uid="{458E62CE-F2DB-43E8-A0B1-3AE1827047B4}" name="Evidence"/>
-    <tableColumn id="6" xr3:uid="{32E7F817-A24D-47CA-9E2F-56B731209DAA}" name="Justification"/>
+    <tableColumn id="6" xr3:uid="{32E7F817-A24D-47CA-9E2F-56B731209DAA}" name="Justification/Limitation"/>
     <tableColumn id="7" xr3:uid="{EA67DD74-0EA9-4894-93DB-334F56C81888}" name="Success Criteria"/>
     <tableColumn id="8" xr3:uid="{853CCA24-6CE7-472E-AF5E-76CD171E3972}" name="Github link to issues"/>
   </tableColumns>
@@ -404,29 +611,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I3"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -438,39 +646,405 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B9AC4-EF4C-4644-8B27-594D268AE74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984C4628-5077-440D-BE7D-84F28207809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>Requirement</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Problem</t>
   </si>
   <si>
-    <t>pg.1</t>
-  </si>
-  <si>
     <t>It helps this because it does</t>
   </si>
   <si>
@@ -147,15 +144,6 @@
     <t>Methodology List Appendability</t>
   </si>
   <si>
-    <t>PS.1</t>
-  </si>
-  <si>
-    <t>PS.2</t>
-  </si>
-  <si>
-    <t>PS.3</t>
-  </si>
-  <si>
     <t>Weekly Planner</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>Settings Four Strength Preferences</t>
   </si>
   <si>
-    <t>Algorythim</t>
-  </si>
-  <si>
     <t>Scheduling Meal Time Slots</t>
   </si>
   <si>
@@ -189,88 +174,25 @@
     <t>Pantry Look Up Expiry Dates</t>
   </si>
   <si>
-    <t>PS.1.1</t>
-  </si>
-  <si>
-    <t>PS.1.2</t>
-  </si>
-  <si>
-    <t>PS.1.3</t>
-  </si>
-  <si>
-    <t>PS.1.4</t>
-  </si>
-  <si>
-    <t>PS.1.5</t>
-  </si>
-  <si>
-    <t>PS.1.6</t>
-  </si>
-  <si>
-    <t>PS.1.7</t>
-  </si>
-  <si>
-    <t>PS.1.8</t>
-  </si>
-  <si>
-    <t>PS.1.9</t>
-  </si>
-  <si>
-    <t>PS.1.10</t>
-  </si>
-  <si>
-    <t>PS.1.11</t>
-  </si>
-  <si>
-    <t>PS.1.12</t>
-  </si>
-  <si>
-    <t>PS.1.13</t>
-  </si>
-  <si>
-    <t>PS.2.1</t>
-  </si>
-  <si>
-    <t>PS.2.2</t>
-  </si>
-  <si>
-    <t>PS.2.3</t>
-  </si>
-  <si>
-    <t>PS.2.4</t>
-  </si>
-  <si>
-    <t>PS.2.5</t>
-  </si>
-  <si>
-    <t>PS.2.6</t>
-  </si>
-  <si>
-    <t>PS.3.1</t>
-  </si>
-  <si>
-    <t>PS.3.2</t>
-  </si>
-  <si>
-    <t>PS.3.3</t>
-  </si>
-  <si>
-    <t>PS.3.4</t>
-  </si>
-  <si>
-    <t>PS.3.5</t>
-  </si>
-  <si>
-    <t>PS.3.6</t>
-  </si>
-  <si>
-    <t>PS.3.7</t>
-  </si>
-  <si>
-    <t>PS.3.8</t>
-  </si>
-  <si>
-    <t>PS.3.9</t>
+    <t>Heuristic Variant Collapser</t>
+  </si>
+  <si>
+    <t>Infinite Resource Sourcing</t>
+  </si>
+  <si>
+    <t>WB.2</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>S.XX</t>
+  </si>
+  <si>
+    <t>S.1</t>
   </si>
 </sst>
 </file>
@@ -332,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I40" totalsRowShown="0">
-  <autoFilter ref="B2:I40" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I36" totalsRowShown="0">
+  <autoFilter ref="B2:I36" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{61333736-D8AE-4E92-8083-E0CA1447312A}" name="Requirement"/>
     <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Subrequirement"/>
@@ -611,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -646,39 +568,39 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>3</v>
@@ -686,361 +608,488 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1.7</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1.9</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1.1100000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1.1200000000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1.1299999999999999</v>
       </c>
       <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2.1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>2.4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>2.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>2.6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>3.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>3.2</v>
+      </c>
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>3.3</v>
+      </c>
+      <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>3.4</v>
+      </c>
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>3.5</v>
+      </c>
+      <c r="D30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>3.6</v>
+      </c>
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>3.7</v>
+      </c>
+      <c r="D32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>3.8</v>
+      </c>
+      <c r="D33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>3.9</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
+      <c r="F36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marvellous-Meal-Maker\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C975EF64-64EC-45BE-B316-5DFE04F46B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA378B1-FA42-4DEE-8BA1-AA61F7D42A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>Requirement</t>
   </si>
@@ -313,12 +313,56 @@
     <t>Knows what items can be substituted in for recipes</t>
   </si>
   <si>
-    <t>Being able to substite items with close enough
- replications to allow recipes to function on less items</t>
-  </si>
-  <si>
     <t>Have a detailed list of item variants to allow for a large amount of substiution
 List of variants</t>
+  </si>
+  <si>
+    <t>alt and enter for in cell spacing</t>
+  </si>
+  <si>
+    <t>Exactly shows the recommended way to store goods</t>
+  </si>
+  <si>
+    <t>Users will need the ability to learn about storing
+ different items that future programs will tell them to get</t>
+  </si>
+  <si>
+    <t>Having a full outline of methods and timings for storing raw and intermediary goods.</t>
+  </si>
+  <si>
+    <t>The ability to add more items to the pantry</t>
+  </si>
+  <si>
+    <t>For the end user, being able to add to the pantry, in the program itself will allow for greater expandability</t>
+  </si>
+  <si>
+    <t>Able to insert items into the pantry
+Able to change tags for items</t>
+  </si>
+  <si>
+    <t>A graphics interface with the Pantry</t>
+  </si>
+  <si>
+    <t>Being able to substitute items with close enough
+ replications to allow recipes to function on less items</t>
+  </si>
+  <si>
+    <t>Users need to be able to see the different options and current amounts of different items</t>
+  </si>
+  <si>
+    <t>See items
+See their amounts
+See storage methods</t>
+  </si>
+  <si>
+    <t>Needing to know where to buy certain items</t>
+  </si>
+  <si>
+    <t>Stores only sell a selection of goods, meaning that the pantry must be able to know how easy it is to get certain items</t>
+  </si>
+  <si>
+    <t>Items have where to buy
+Can assume things off of this</t>
   </si>
 </sst>
 </file>
@@ -414,17 +458,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B2:I40" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{61333736-D8AE-4E92-8083-E0CA1447312A}" name="Requirement" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Subrequirement" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{31DCF9F4-D0AB-48D6-B273-6A61762E92FB}" name="User Requirement" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F88B3A48-8665-40A1-B555-E18A8C57A7A1}" name="Solves" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{458E62CE-F2DB-43E8-A0B1-3AE1827047B4}" name="Evidence" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{32E7F817-A24D-47CA-9E2F-56B731209DAA}" name="Justification/Limitation" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{EA67DD74-0EA9-4894-93DB-334F56C81888}" name="Success Criteria" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{853CCA24-6CE7-472E-AF5E-76CD171E3972}" name="Github link to issues" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{61333736-D8AE-4E92-8083-E0CA1447312A}" name="Requirement" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Subrequirement" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{31DCF9F4-D0AB-48D6-B273-6A61762E92FB}" name="User Requirement" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F88B3A48-8665-40A1-B555-E18A8C57A7A1}" name="Solves" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{458E62CE-F2DB-43E8-A0B1-3AE1827047B4}" name="Evidence" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{32E7F817-A24D-47CA-9E2F-56B731209DAA}" name="Justification/Limitation" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{EA67DD74-0EA9-4894-93DB-334F56C81888}" name="Success Criteria" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{853CCA24-6CE7-472E-AF5E-76CD171E3972}" name="Github link to issues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,27 +740,27 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -768,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -800,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
@@ -817,10 +861,10 @@
         <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -832,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
@@ -842,8 +886,17 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>55</v>
@@ -855,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
@@ -865,8 +918,17 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>56</v>
@@ -878,7 +940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -888,14 +950,23 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -905,14 +976,26 @@
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -929,7 +1012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -946,7 +1029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -963,7 +1046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -980,7 +1063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -997,7 +1080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1014,7 +1097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1065,7 +1148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1133,7 +1216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1150,7 +1233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1167,7 +1250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1201,7 +1284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1218,7 +1301,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1235,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1252,7 +1335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1269,7 +1352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1286,7 +1369,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1303,7 +1386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1320,7 +1403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1337,7 +1420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1371,7 +1454,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1405,7 +1488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marvellous-Meal-Maker\The Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA378B1-FA42-4DEE-8BA1-AA61F7D42A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FEAC81-8F53-4D2A-8FDF-B988E155854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
   <si>
     <t>Requirement</t>
   </si>
@@ -363,6 +363,61 @@
   <si>
     <t>Items have where to buy
 Can assume things off of this</t>
+  </si>
+  <si>
+    <t>A tracker for spice and scoville for items</t>
+  </si>
+  <si>
+    <t>Users require the knowledge of certain spice levels to food as some things might be too hot or too cool</t>
+  </si>
+  <si>
+    <t>Tracking certain allergens in items and products</t>
+  </si>
+  <si>
+    <t>It is vital for people's health and development of childrens immunities that allergens are tracked for users to see</t>
+  </si>
+  <si>
+    <t>Able to see allergens in items
+Able to see allergens in products</t>
+  </si>
+  <si>
+    <t>Specifically tracks out what group items need to be in</t>
+  </si>
+  <si>
+    <t>Users might be on tight diets or have dietary restrictions that would prevent certain amounts of items from being eaten</t>
+  </si>
+  <si>
+    <t>Outline each food group
+Tag items with the food groups that are necessary</t>
+  </si>
+  <si>
+    <t>Tracks specific textural components of items</t>
+  </si>
+  <si>
+    <t>https://www.cookwell.com/fundamental/flavor/texture</t>
+  </si>
+  <si>
+    <t>Saves information about textural components of items, when raw, or intermediary products, when processed</t>
+  </si>
+  <si>
+    <t>Track different levels of heat including none
+Add scoville elements to spicy items</t>
+  </si>
+  <si>
+    <t>Know what different textures there are
+Apply to different items and products</t>
+  </si>
+  <si>
+    <t>DESCRIPTIONS OF TRACKED VALUES ARE IN THIS ONE</t>
+  </si>
+  <si>
+    <t>CRUNCHY, CHEWY, CREAMY, CRISPY, UNCTUOUS</t>
+  </si>
+  <si>
+    <t>https://www.cookwell.com/fundamental/flavor/taste</t>
+  </si>
+  <si>
+    <t>SWEET, SOUR, BITTER, SALTY, UMAMI</t>
   </si>
 </sst>
 </file>
@@ -739,28 +794,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,8 +840,11 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -812,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -844,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
@@ -876,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
@@ -908,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
@@ -940,7 +998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -966,7 +1024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -991,11 +1049,11 @@
       <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,14 +1063,23 @@
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1022,14 +1089,23 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,14 +1115,23 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1056,14 +1141,29 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1097,7 +1197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1113,8 +1213,14 @@
       <c r="I16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,7 +1237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1148,7 +1254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1165,7 +1271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1216,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1233,7 +1339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1250,7 +1356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1267,7 +1373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1301,7 +1407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +1441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1352,7 +1458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1369,7 +1475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1386,7 +1492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1420,7 +1526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1437,7 +1543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1454,7 +1560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1577,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marvellous-Meal-Maker\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FEAC81-8F53-4D2A-8FDF-B988E155854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F70A3F-3B35-48FD-94F1-BF8CC74F87DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
   <si>
     <t>Requirement</t>
   </si>
@@ -418,6 +418,46 @@
   </si>
   <si>
     <t>SWEET, SOUR, BITTER, SALTY, UMAMI</t>
+  </si>
+  <si>
+    <t>Tracks the active amounts of items</t>
+  </si>
+  <si>
+    <t>Stores the specific amount of items, such as being needed for the week of recipes, and for good to haves for further times</t>
+  </si>
+  <si>
+    <t>Different storage types (dry wet)
+Tied into specific items</t>
+  </si>
+  <si>
+    <t>Expiration methodologies and timings for items</t>
+  </si>
+  <si>
+    <t>Items need to be good for certain amounts of time in meals and for further usage, so knowing expirations helps a lot</t>
+  </si>
+  <si>
+    <t>Expiration dates
+Expiration methods</t>
+  </si>
+  <si>
+    <t>Allocates different tastes to items</t>
+  </si>
+  <si>
+    <t>Items can be classified as having certain tastes which makes it handy for knowing what variant possibilities there can be</t>
+  </si>
+  <si>
+    <t>Different tastes
+Allocated to items</t>
+  </si>
+  <si>
+    <t>Stores commonly use "infinite" resources that are needed (water, salt)</t>
+  </si>
+  <si>
+    <t>Users, when dealing with methodologies and recipes, have certain things that are assumed to be always there</t>
+  </si>
+  <si>
+    <t>Set up certain resources to be infinite
+And can be tapped infinitely in a method</t>
   </si>
 </sst>
 </file>
@@ -513,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B2:I40" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}" name="Table1" displayName="Table1" ref="B2:I39" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:I39" xr:uid="{1C60201B-D876-4109-8647-FE7C1079C08C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{61333736-D8AE-4E92-8083-E0CA1447312A}" name="Requirement" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{3BFEB35C-ED06-4F45-ABB0-1959FF28BE4A}" name="Subrequirement" dataDxfId="6"/>
@@ -794,28 +834,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -870,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -902,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
@@ -934,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
@@ -966,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
@@ -998,7 +1038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1024,7 +1064,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1053,7 +1093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1105,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1173,14 +1213,23 @@
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1190,14 +1239,23 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,9 +1265,18 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1220,7 +1287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1271,7 +1338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1305,7 +1372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1339,7 +1406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1356,7 +1423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1373,7 +1440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1407,7 +1474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1424,7 +1491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1441,7 +1508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1458,7 +1525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1475,7 +1542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1509,7 +1576,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1526,7 +1593,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1560,7 +1627,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1594,7 +1661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1604,8 +1671,17 @@
       <c r="D39" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>89</v>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marvellous-Meal-Maker\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F70A3F-3B35-48FD-94F1-BF8CC74F87DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F7FB5-7DF3-4BED-A8C9-D85E2C723163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marvellous-Meal-Maker\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F7FB5-7DF3-4BED-A8C9-D85E2C723163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1CB24-8FBE-44C2-9557-A647C59EE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="181">
   <si>
     <t>Requirement</t>
   </si>
@@ -458,13 +469,150 @@
   <si>
     <t>Set up certain resources to be infinite
 And can be tapped infinitely in a method</t>
+  </si>
+  <si>
+    <t>Lists out intermediary and final product rules for making products for the user to eat</t>
+  </si>
+  <si>
+    <t>Sets out what items are going to be eaten and stores history about them for other components</t>
+  </si>
+  <si>
+    <t>Decides what items are to be allocated</t>
+  </si>
+  <si>
+    <t>Dictates how methods can be leftovers and how long for</t>
+  </si>
+  <si>
+    <t>Users need to know exactly how long method made items can be sustained and consumed as it would allow for multiple eating</t>
+  </si>
+  <si>
+    <t>How to store methods
+How long to store methods for</t>
+  </si>
+  <si>
+    <t>What full recipes need what methods</t>
+  </si>
+  <si>
+    <t>Certain foodstuffs need a multiple step process to create a full meal, and as such require intermediary steps to get them</t>
+  </si>
+  <si>
+    <t>Can store methods for full recipes</t>
+  </si>
+  <si>
+    <t>Knowing where methods come from</t>
+  </si>
+  <si>
+    <t>A user might want to make a specific cuisine, and as such weight that cuisine differently next to others</t>
+  </si>
+  <si>
+    <t>Track cuisine location for methods</t>
+  </si>
+  <si>
+    <t>A recollection of item trackers but for methods instead</t>
+  </si>
+  <si>
+    <t>A graphics interface with the Method List</t>
+  </si>
+  <si>
+    <t>Most if not all of the variables for the items should be kept for the methods for the sake of health and taste for end users</t>
+  </si>
+  <si>
+    <t>Track all variables for methods
+Potentially add method unique ones too</t>
+  </si>
+  <si>
+    <t>Users need to be able to see the different options and current amounts of different methods</t>
+  </si>
+  <si>
+    <t>See methods
+See their requirements</t>
+  </si>
+  <si>
+    <t>The ability to add more methods to the method list</t>
+  </si>
+  <si>
+    <t>For the end user, being able to add to the method list, in the program itself will allow for greater expandability</t>
+  </si>
+  <si>
+    <t>Able to insert items into the method list
+Able to change tags for methods</t>
+  </si>
+  <si>
+    <t>Set up time for methods</t>
+  </si>
+  <si>
+    <t>Cooking time for methods</t>
+  </si>
+  <si>
+    <t>End users will need not only a general gauge on time, but a specific one for set up as that can potentially be done in advance</t>
+  </si>
+  <si>
+    <t>Can search methods by set up time
+Weight by set up time depending on situation</t>
+  </si>
+  <si>
+    <t>Whilst set up time is important, cooking time is needing to be factored as that is the most needed to know for the user</t>
+  </si>
+  <si>
+    <t>Can search methods by cooking time
+Weight by cooking time depending on situation</t>
+  </si>
+  <si>
+    <t>If multiple ingredients can be passed through a method, allow this to happen</t>
+  </si>
+  <si>
+    <t>If a specific ingredient can not be consumed or obtained, make it bodgeable</t>
+  </si>
+  <si>
+    <t>Some methods can have multiple different ingredients pass through the recipe and still be considered complete (meat for example)</t>
+  </si>
+  <si>
+    <t>Have methods be able to accept certain different items
+Have this not break the algorithm</t>
+  </si>
+  <si>
+    <t>Be able to bodge through allergens
+Be able to bodge through hard to obtain ingredients</t>
+  </si>
+  <si>
+    <t>Outlines store restrictions and availability</t>
+  </si>
+  <si>
+    <t>Specific hard to obtain ingredients or allergens in recipes might be able to be bodged from a variety of specific items into bodged foodstuffs</t>
+  </si>
+  <si>
+    <t>Certain users make be restricted by their availability to certain items so this should be managed</t>
+  </si>
+  <si>
+    <t>Dictate what kind of stores there are
+Allocate certain items to those stores</t>
+  </si>
+  <si>
+    <t>Optionality for allergies</t>
+  </si>
+  <si>
+    <t>Certain users may or may not have certain allergies and being able to turn on and off specific allergies would help with usability</t>
+  </si>
+  <si>
+    <t>Have allergies be toggleable
+Have the user be able to toggle them</t>
+  </si>
+  <si>
+    <t>Users may like or dislike certain components and as such want to give certain weightings to certain things</t>
+  </si>
+  <si>
+    <t>Add the four like weights
+Give the user the ability to change what gets added</t>
+  </si>
+  <si>
+    <t>The ability to change weights in accordance with likability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +622,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,16 +652,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -834,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -932,7 +1093,7 @@
       <c r="H4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -964,7 +1125,7 @@
       <c r="H5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -996,7 +1157,7 @@
       <c r="H6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1028,7 +1189,7 @@
       <c r="H7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1060,7 +1221,7 @@
       <c r="H8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1086,7 +1247,7 @@
       <c r="H9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1115,7 +1276,7 @@
       <c r="H10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1141,7 +1302,7 @@
       <c r="H11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1167,7 +1328,7 @@
       <c r="H12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1193,7 +1354,7 @@
       <c r="H13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1225,7 +1386,7 @@
       <c r="H14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1251,7 +1412,7 @@
       <c r="H15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1277,7 +1438,7 @@
       <c r="H16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1287,7 +1448,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1297,6 +1458,9 @@
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1304,7 +1468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1314,14 +1478,23 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1331,14 +1504,23 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,14 +1530,23 @@
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1365,14 +1556,23 @@
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1382,14 +1582,23 @@
       <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1399,14 +1608,23 @@
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1416,14 +1634,23 @@
       <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1433,14 +1660,23 @@
       <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1450,14 +1686,23 @@
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1467,14 +1712,23 @@
       <c r="D27" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1484,6 +1738,9 @@
       <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1501,14 +1758,23 @@
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1518,14 +1784,23 @@
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1535,10 +1810,19 @@
       <c r="D31" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1552,6 +1836,9 @@
       <c r="D32" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
@@ -1572,7 +1859,7 @@
       <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1589,7 +1876,7 @@
       <c r="F34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1606,7 +1893,7 @@
       <c r="F35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1623,7 +1910,7 @@
       <c r="F36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1640,7 +1927,7 @@
       <c r="F37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1657,7 +1944,7 @@
       <c r="F38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1683,15 +1970,50 @@
       <c r="H39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I19" r:id="rId1" xr:uid="{A22FC6E8-013D-4B9C-888B-6DEB66BC0BBD}"/>
+    <hyperlink ref="I18" r:id="rId2" xr:uid="{7C396296-C385-4A00-99E1-988F34796E1E}"/>
+    <hyperlink ref="I16" r:id="rId3" xr:uid="{76D81C8E-FB21-48C0-9F0B-93BC9FA5FA75}"/>
+    <hyperlink ref="I15" r:id="rId4" xr:uid="{A0067A10-2FBD-4665-B9A8-9F882E7F7B5E}"/>
+    <hyperlink ref="I14" r:id="rId5" xr:uid="{B4CD3B35-5559-43F7-A63F-A73946B25C09}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{C8ABCD4A-CD74-4563-B37C-B6E3BADAED14}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{14C15A46-F60D-4C6C-9780-68099ABDBDBE}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{9180ABAD-38CF-4BD5-B15E-087B315799D4}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{C93B0FDF-9812-4DBA-98A5-57B245D68060}"/>
+    <hyperlink ref="I9" r:id="rId10" xr:uid="{192DEBE5-436F-4648-BD53-254A2FD5559D}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{8741CBAE-DA1E-4AB2-89D0-15E13AF26114}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{31AE8EC8-0886-4AE6-89A9-146FF6280707}"/>
+    <hyperlink ref="I6" r:id="rId13" xr:uid="{85D839C6-4686-4DBE-B3C1-93828D05BEDC}"/>
+    <hyperlink ref="I5" r:id="rId14" xr:uid="{E1658E24-0100-45FF-B91E-6530B50A13E2}"/>
+    <hyperlink ref="I4" r:id="rId15" xr:uid="{FB7FB13B-DAE9-4C5A-A4DE-EE374878EC92}"/>
+    <hyperlink ref="I20" r:id="rId16" xr:uid="{1C280FCF-5DC4-4792-8AC5-AE3CE8585DC6}"/>
+    <hyperlink ref="I21" r:id="rId17" xr:uid="{C514906A-02C9-43EA-BEE8-30E741748FD0}"/>
+    <hyperlink ref="I22" r:id="rId18" xr:uid="{DB44C35E-F0B0-42F8-A92B-4C36CADAB8ED}"/>
+    <hyperlink ref="I23" r:id="rId19" xr:uid="{B806D4F2-CDA0-47E0-9AE2-FC9F3918EB5A}"/>
+    <hyperlink ref="I24" r:id="rId20" xr:uid="{50239B50-B1BF-4833-B28B-545339B02172}"/>
+    <hyperlink ref="I25" r:id="rId21" xr:uid="{7FE2DFCA-6167-4F14-8F20-37CF0E1CAE10}"/>
+    <hyperlink ref="I27" r:id="rId22" xr:uid="{BB1F3120-FDCE-44A7-A68E-FE1A2F19B08A}"/>
+    <hyperlink ref="I26" r:id="rId23" xr:uid="{5A54E90B-0719-4091-8771-E641A56EF2B0}"/>
+    <hyperlink ref="I29" r:id="rId24" xr:uid="{6B646C5C-3904-4E32-8163-2AB83854CE47}"/>
+    <hyperlink ref="I39" r:id="rId25" xr:uid="{25F7B40E-9B47-4B3B-94A9-8C6A350B7958}"/>
+    <hyperlink ref="I38" r:id="rId26" xr:uid="{B0B53DF3-B6C8-42B3-B464-730198107A65}"/>
+    <hyperlink ref="I37" r:id="rId27" xr:uid="{99837656-CD4A-4C54-AECC-E07BA118DB08}"/>
+    <hyperlink ref="I36" r:id="rId28" xr:uid="{2688C20B-5A64-4ED9-82C8-81719A512998}"/>
+    <hyperlink ref="I35" r:id="rId29" xr:uid="{F105F2F7-05F0-4C22-95B7-206D2C61766B}"/>
+    <hyperlink ref="I34" r:id="rId30" xr:uid="{78811BCE-8910-4021-9F8A-F2CF05DCAC11}"/>
+    <hyperlink ref="I33" r:id="rId31" xr:uid="{8768ECC4-9661-455C-8301-5D4590E28B8B}"/>
+    <hyperlink ref="I31" r:id="rId32" xr:uid="{BB916ACE-4178-4366-8C88-91BFE05C4912}"/>
+    <hyperlink ref="I30" r:id="rId33" xr:uid="{CE7AD33D-23CB-42A0-A0A4-F16C2CAE0446}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marvellous-Meal-Maker\The Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B1CB24-8FBE-44C2-9557-A647C59EE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5512E2DB-9397-4D85-8327-757453F591BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="199">
   <si>
     <t>Requirement</t>
   </si>
@@ -606,6 +606,67 @@
   </si>
   <si>
     <t>The ability to change weights in accordance with likability</t>
+  </si>
+  <si>
+    <t>Outlines specific time segments for products</t>
+  </si>
+  <si>
+    <t>The algorithm should outline multiple points in time of when products can be allocated, such as breakfast and dinner</t>
+  </si>
+  <si>
+    <t>Mark up different segments of time
+Allocate accurate product placements</t>
+  </si>
+  <si>
+    <t>Marks a short term high priority memory</t>
+  </si>
+  <si>
+    <t>Memory is needed to know which meals to make, and as such a temporary, high weight changing memory will be needed</t>
+  </si>
+  <si>
+    <t>Marks a long term lower priority memory</t>
+  </si>
+  <si>
+    <t>Memory is needed to know which meals to make, and as such a slightly less temporary, low weight changing memory will be needed</t>
+  </si>
+  <si>
+    <t>Add a 28 day long term memory low priority memory
+Allocate this to the meal planner</t>
+  </si>
+  <si>
+    <t>Add a 7 day short term memory high priority memory
+Allocate this to the meal planner</t>
+  </si>
+  <si>
+    <t>What to do when the user has a different meal</t>
+  </si>
+  <si>
+    <t>Be told when a user has another different meal
+Have it factor
+Don't have it factor</t>
+  </si>
+  <si>
+    <t>An outline to purchase items for products</t>
+  </si>
+  <si>
+    <t>Despite being outlined, a user may choose or be forced to have another meal in place of the one outlined, and as such there should be options around whether or not this should factor into weighting</t>
+  </si>
+  <si>
+    <t>Purchasing items will be required for certain methodologies, if not all, and as such outlining what the user needs to buy would help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items can be purchased for methods
+</t>
+  </si>
+  <si>
+    <t>Leftover factorisation for end products</t>
+  </si>
+  <si>
+    <t>Users may have leftovers from previous segments of time and as such knowing the expiry date for finish products can help with reducing waste</t>
+  </si>
+  <si>
+    <t>Expiry date knowledge
+Expiry date application</t>
   </si>
 </sst>
 </file>
@@ -995,28 +1056,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1106,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1071,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1135,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1167,7 +1228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1199,7 +1260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1225,7 +1286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1416,7 +1477,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1509,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1468,7 +1529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1520,7 +1581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1572,7 +1633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1598,7 +1659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1624,7 +1685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1650,7 +1711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1676,7 +1737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1702,7 +1763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1748,7 +1809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1774,7 +1835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1800,7 +1861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1826,7 +1887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1846,7 +1907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1856,14 +1917,23 @@
       <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1873,14 +1943,23 @@
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1890,14 +1969,23 @@
       <c r="D35" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1907,14 +1995,23 @@
       <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1924,14 +2021,23 @@
       <c r="D37" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1941,14 +2047,23 @@
       <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5512E2DB-9397-4D85-8327-757453F591BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EFC93-C41E-4D96-BA5E-CD769012D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,10 +354,6 @@
     <t>A graphics interface with the Pantry</t>
   </si>
   <si>
-    <t>Being able to substitute items with close enough
- replications to allow recipes to function on less items</t>
-  </si>
-  <si>
     <t>Users need to be able to see the different options and current amounts of different items</t>
   </si>
   <si>
@@ -667,6 +663,9 @@
   <si>
     <t>Expiry date knowledge
 Expiry date application</t>
+  </si>
+  <si>
+    <t>Being able to substitute items with close enough replications to allow recipes to function on less items</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1181,7 +1180,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>95</v>
@@ -1277,10 +1276,10 @@
         <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>57</v>
@@ -1297,16 +1296,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>58</v>
@@ -1326,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>59</v>
@@ -1352,16 +1351,16 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>60</v>
@@ -1378,16 +1377,16 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>61</v>
@@ -1404,25 +1403,25 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -1436,16 +1435,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
@@ -1462,16 +1461,16 @@
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>64</v>
@@ -1488,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1520,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>47</v>
@@ -1540,16 +1539,16 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>66</v>
@@ -1566,16 +1565,16 @@
         <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>67</v>
@@ -1592,16 +1591,16 @@
         <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>68</v>
@@ -1618,16 +1617,16 @@
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>69</v>
@@ -1644,16 +1643,16 @@
         <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>70</v>
@@ -1670,16 +1669,16 @@
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>71</v>
@@ -1696,16 +1695,16 @@
         <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>76</v>
@@ -1722,16 +1721,16 @@
         <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>77</v>
@@ -1748,16 +1747,16 @@
         <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>78</v>
@@ -1774,16 +1773,16 @@
         <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>79</v>
@@ -1800,7 +1799,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>51</v>
@@ -1820,16 +1819,16 @@
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>80</v>
@@ -1846,16 +1845,16 @@
         <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>81</v>
@@ -1872,16 +1871,16 @@
         <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>82</v>
@@ -1898,7 +1897,7 @@
         <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>51</v>
@@ -1918,16 +1917,16 @@
         <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>83</v>
@@ -1944,16 +1943,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>84</v>
@@ -1970,16 +1969,16 @@
         <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>85</v>
@@ -1996,16 +1995,16 @@
         <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>86</v>
@@ -2022,16 +2021,16 @@
         <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>87</v>
@@ -2048,16 +2047,16 @@
         <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>88</v>
@@ -2074,16 +2073,16 @@
         <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>89</v>

--- a/The Report/Requirements specification.xlsx
+++ b/The Report/Requirements specification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidic\Documents\Computer Science\Project Work\The Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EFC93-C41E-4D96-BA5E-CD769012D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363DEB3D-2A72-4318-97A9-8BE3B03AD2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,9 +574,6 @@
     <t>Outlines store restrictions and availability</t>
   </si>
   <si>
-    <t>Specific hard to obtain ingredients or allergens in recipes might be able to be bodged from a variety of specific items into bodged foodstuffs</t>
-  </si>
-  <si>
     <t>Certain users make be restricted by their availability to certain items so this should be managed</t>
   </si>
   <si>
@@ -665,7 +662,10 @@
 Expiry date application</t>
   </si>
   <si>
-    <t>Being able to substitute items with close enough replications to allow recipes to function on less items</t>
+    <t>Being able to substitute items with close enough replications to allow recipes to function</t>
+  </si>
+  <si>
+    <t>Specific hard to obtain ingredients or allergens in recipes might be able to be bodged from a variety of specific items into bodged products</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1180,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>95</v>
@@ -1779,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>169</v>
@@ -1825,10 +1825,10 @@
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>80</v>
@@ -1845,16 +1845,16 @@
         <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>81</v>
@@ -1871,16 +1871,16 @@
         <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>82</v>
@@ -1917,16 +1917,16 @@
         <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>83</v>
@@ -1943,16 +1943,16 @@
         <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>84</v>
@@ -1969,16 +1969,16 @@
         <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>85</v>
@@ -1995,16 +1995,16 @@
         <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>86</v>
@@ -2021,16 +2021,16 @@
         <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>87</v>
@@ -2047,16 +2047,16 @@
         <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>88</v>
